--- a/StructureDefinition-ext-R5-ConceptMap.gro.ele.tar.dependsOn.xlsx
+++ b/StructureDefinition-ext-R5-ConceptMap.gro.ele.tar.dependsOn.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-06T19:17:19.5427077+00:00</t>
+    <t>2026-02-10T04:05:33.0136333+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -459,7 +459,8 @@
   </si>
   <si>
     <t>Element `ConceptMap.group.element.target.dependsOn.valueSet` is part of an existing definition because parent element `ConceptMap.group.element.target.dependsOn` requires a component extension (e.g., if this element is used as a content reference).
-Element `ConceptMap.group.element.target.dependsOn.valueSet` is mapped to FHIR R4 structure `ConceptMap`, but has no target element specified.</t>
+Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `ConceptMap.group.element.target.dependsOn.valueSet` with an unmapped Canonical type: `http://hl7.org/fhir/StructureDefinition/alternate-canonical`.
+Element `ConceptMap.group.element.target.dependsOn.valueSet` is will have a context of ConceptMap.group.element.target.dependsOn based on following the parent source element upwards and mapping to `ConceptMap`.</t>
   </si>
   <si>
     <t>Extension.extension:valueSet.id</t>
@@ -825,7 +826,7 @@
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="207.046875" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="216.546875" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
